--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1596844.415354548</v>
+        <v>1672374.085019354</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>200.5805366086258</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>238.4631285907691</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -826,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>134.8844947709057</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>22.35153719005479</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>307.9222910483171</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>287.2841839626593</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.54948371288038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>117.8916520813113</v>
+        <v>255.729286927289</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.1620927780569</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>38.39834678541102</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>152.3458132526256</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>104.6354350586182</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>77.09075258260994</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>41.92656778835364</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>115.5953869016531</v>
       </c>
       <c r="U19" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>12.85506030235168</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002187</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>58.70811713027396</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>216.6042689008373</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>118.4898845065132</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664946</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -3001,13 +3003,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>219.1175572072686</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0.7644211441608035</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>152.6276470398217</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>274.5794303328231</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>18.68432091410194</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>48.7711975479001</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>15.74955790720832</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>66.14085215535403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>162.6978621034563</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1878.515311311824</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1509.552794371412</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1509.552794371412</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1123.764541773168</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>712.7786369835605</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>294.8148288817474</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4361,19 +4363,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.1897464970883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>359.1897464970883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>359.1897464970883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>359.1897464970883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>705.5516739134498</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>557.4050153476338</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.1897464970883</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6872557005402</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8990031022959</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4610,7 +4612,7 @@
         <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418.6523285934728</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4758,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>418.6523285934728</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>959.5129866402885</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1719.57858496549</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="X8" t="n">
-        <v>1346.11282670441</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y8" t="n">
-        <v>1346.11282670441</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.840561024597</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>513.840561024597</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>513.840561024597</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>513.840561024597</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>513.840561024597</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4984,28 +4986,28 @@
         <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>513.840561024597</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>513.840561024597</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U10" t="n">
-        <v>513.840561024597</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V10" t="n">
-        <v>513.840561024597</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>513.840561024597</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>513.840561024597</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.840561024597</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,16 +5026,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,16 +5044,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582084</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458727</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E13" t="n">
-        <v>401.5197597634796</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F13" t="n">
-        <v>401.5197597634796</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5239,10 +5241,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5364,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.4856756861153</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C16" t="n">
-        <v>699.5494927582084</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>549.4328533458727</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>401.5197597634796</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>401.5197597634796</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5513,13 +5515,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5601,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>4433.096442419293</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>4143.967803632851</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>3889.283315426964</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5731,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4368.210994661431</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C22" t="n">
-        <v>4199.274811733524</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D22" t="n">
-        <v>4049.158172321188</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924874</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
         <v>3459.155393916675</v>
@@ -5932,28 +5934,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>4744.160657054475</v>
       </c>
       <c r="T22" t="n">
-        <v>4549.85945949167</v>
+        <v>4520.375241843982</v>
       </c>
       <c r="U22" t="n">
-        <v>4549.85945949167</v>
+        <v>4231.24660305754</v>
       </c>
       <c r="V22" t="n">
-        <v>4549.85945949167</v>
+        <v>3976.562114851653</v>
       </c>
       <c r="W22" t="n">
-        <v>4549.85945949167</v>
+        <v>3687.144944814692</v>
       </c>
       <c r="X22" t="n">
-        <v>4549.85945949167</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y22" t="n">
-        <v>4549.85945949167</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3928.626224708974</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>3759.690041781067</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>3609.573402368731</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>3609.573402368731</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1439.615142143484</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1239.695132059036</v>
       </c>
       <c r="T25" t="n">
-        <v>4331.067268682744</v>
+        <v>1015.909716848542</v>
       </c>
       <c r="U25" t="n">
-        <v>4331.067268682744</v>
+        <v>726.7810780621004</v>
       </c>
       <c r="V25" t="n">
-        <v>4331.067268682744</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="W25" t="n">
-        <v>4331.067268682744</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X25" t="n">
-        <v>4331.067268682744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y25" t="n">
-        <v>4110.274689539214</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>4571.72593422785</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4027.624275985003</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3578.842145943456</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6442,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,10 +6457,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6467,7 +6469,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,31 +6481,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>674.2349604684848</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="C31" t="n">
-        <v>674.2349604684848</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="D31" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
         <v>359.1696912903951</v>
@@ -6616,7 +6618,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6649,22 +6651,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>966.5902911693521</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="V31" t="n">
-        <v>674.2349604684848</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="W31" t="n">
-        <v>674.2349604684848</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="X31" t="n">
-        <v>674.2349604684848</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="Y31" t="n">
-        <v>674.2349604684848</v>
+        <v>677.4616523829103</v>
       </c>
     </row>
     <row r="32">
@@ -6677,10 +6679,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,7 +6694,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>677.4616523829102</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C34" t="n">
-        <v>677.4616523829102</v>
+        <v>251.3864319045502</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>251.3864319045502</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>251.3864319045502</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>251.3864319045502</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>1221.563310625758</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>966.8788224198709</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>677.4616523829102</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X34" t="n">
-        <v>677.4616523829102</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y34" t="n">
-        <v>677.4616523829102</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6947,19 +6949,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,16 +7168,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.6385818722731</v>
+        <v>579.0685056491543</v>
       </c>
       <c r="C40" t="n">
-        <v>874.6385818722731</v>
+        <v>410.1323227212474</v>
       </c>
       <c r="D40" t="n">
-        <v>724.5219424599373</v>
+        <v>260.0156833089117</v>
       </c>
       <c r="E40" t="n">
-        <v>576.6088488775442</v>
+        <v>260.0156833089117</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>113.1257358110013</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>113.1257358110013</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>874.6385818722731</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X40" t="n">
-        <v>874.6385818722731</v>
+        <v>981.5095496229242</v>
       </c>
       <c r="Y40" t="n">
-        <v>874.6385818722731</v>
+        <v>760.716970479394</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,40 +7399,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,16 +7490,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7570,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1432.107328986838</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1432.107328986838</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1432.107328986838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7649,16 +7651,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7670,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>731.0291971045613</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776736</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14.14775521075197</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>44.27839330891797</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>102.7412275993274</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.5670006750239</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>105.9521741567361</v>
       </c>
       <c r="U19" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>133.5789023442175</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338454</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>51.25623527351883</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.94329215755198</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>48.00368395686435</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24889,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.430003851120659</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>251.3732221796672</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>13.86592142355585</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>11.65792206575424</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>148.5625001845259</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25360,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>96.64985047503114</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.1642704603278</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>185.996791168474</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>17.13411807848098</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26074,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370032</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
@@ -26335,13 +26337,13 @@
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="K2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="K2" t="n">
-        <v>488786.3246721358</v>
-      </c>
       <c r="L2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721358</v>
@@ -26350,7 +26352,7 @@
         <v>488786.324672136</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
         <v>488786.3246721359</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.270016921102069e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773395</v>
@@ -26430,34 +26432,34 @@
         <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26481,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26522,46 +26524,46 @@
         <v>-343024.5379699051</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.3412446394</v>
+        <v>246943.3412446399</v>
       </c>
       <c r="D6" t="n">
-        <v>246943.3412446399</v>
+        <v>246943.3412446398</v>
       </c>
       <c r="E6" t="n">
-        <v>-164793.5212712109</v>
+        <v>-164793.5212712107</v>
       </c>
       <c r="F6" t="n">
+        <v>360366.5152056854</v>
+      </c>
+      <c r="G6" t="n">
         <v>360366.5152056853</v>
       </c>
-      <c r="G6" t="n">
-        <v>360366.5152056854</v>
-      </c>
       <c r="H6" t="n">
-        <v>360366.5152056854</v>
+        <v>360366.5152056853</v>
       </c>
       <c r="I6" t="n">
         <v>360366.5152056854</v>
       </c>
       <c r="J6" t="n">
-        <v>183943.2960130925</v>
+        <v>183943.2960130924</v>
       </c>
       <c r="K6" t="n">
-        <v>360366.5152056853</v>
+        <v>360366.5152056854</v>
       </c>
       <c r="L6" t="n">
-        <v>360366.5152056854</v>
+        <v>360366.5152056855</v>
       </c>
       <c r="M6" t="n">
-        <v>225565.4999718481</v>
+        <v>225565.4999718482</v>
       </c>
       <c r="N6" t="n">
-        <v>360366.5152056854</v>
+        <v>360366.5152056856</v>
       </c>
       <c r="O6" t="n">
         <v>360366.5152056854</v>
       </c>
       <c r="P6" t="n">
-        <v>360366.5152056854</v>
+        <v>360366.515205685</v>
       </c>
     </row>
   </sheetData>
@@ -26747,10 +26749,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26759,25 +26761,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>182.1533050548547</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>85.45964417358803</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27546,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>10.53655325202553</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>6.771212764859509</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>98.95375469339433</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>98.95375469339433</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>125.8077805475481</v>
       </c>
       <c r="Y7" t="n">
-        <v>167.0351696392144</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>231.3493166361017</v>
+        <v>93.51168179012399</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>3.147709480994052</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>247.8835274565667</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34301,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35504,10 +35506,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36452,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36847,13 +36849,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37071,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1672374.085019354</v>
+        <v>1665357.070127643</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200.5805366086258</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>355.0420100144013</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.35153719005479</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>389.2021799343691</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>287.2841839626593</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>99.90187484148903</v>
+        <v>162.5776147681367</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>255.729286927289</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>38.39834678541102</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>104.6354350586182</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>23.54872654977494</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.09075258260994</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>124.6501923679393</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>115.5953869016531</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002187</v>
+        <v>140.8066899520705</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>58.70811713027396</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2769,10 +2769,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
-        <v>59.77945773664946</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.1175572072686</v>
+        <v>197.76557724898</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>152.6276470398217</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>103.4697082097225</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151882</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.96451678969</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>15.74955790720832</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>162.6978621034563</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>29.18937547121085</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>893.2319707331117</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.892857925727</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.753525949915</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,31 +4400,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>705.5516739134498</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>557.4050153476338</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8539665087372</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>154.8539665087372</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
         <v>864.6405432696254</v>
@@ -4795,61 +4795,61 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2383.80799051105</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.34223224997</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635876</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584133</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562259</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>777.4224042438901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>629.509310661497</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1475.129678083382</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414372</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>972.2646934632137</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>370.016324178337</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>223.1263766804266</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X16" t="n">
-        <v>1270.926719659885</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.134140516355</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5509,16 +5509,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>4433.096442419293</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>4143.967803632851</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>3889.283315426964</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>3889.283315426964</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>3889.283315426964</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,64 +5740,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
@@ -5837,13 +5837,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>843.1711433963918</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4744.160657054475</v>
+        <v>1245.612187370162</v>
       </c>
       <c r="T22" t="n">
-        <v>4520.375241843982</v>
+        <v>1245.612187370162</v>
       </c>
       <c r="U22" t="n">
-        <v>4231.24660305754</v>
+        <v>1245.612187370162</v>
       </c>
       <c r="V22" t="n">
-        <v>3976.562114851653</v>
+        <v>1245.612187370162</v>
       </c>
       <c r="W22" t="n">
-        <v>3687.144944814692</v>
+        <v>1245.612187370162</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916675</v>
+        <v>1245.612187370162</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916675</v>
+        <v>1024.819608226632</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1439.615142143484</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1239.695132059036</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1015.909716848542</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>726.7810780621004</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>472.0965898562135</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>472.0965898562135</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6208,34 +6208,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6408,16 +6408,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
         <v>614.6238123952637</v>
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,31 +6481,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,13 +6551,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>677.4616523829103</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C31" t="n">
-        <v>677.4616523829103</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705745</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>966.5902911693521</v>
+        <v>1299.153061215498</v>
       </c>
       <c r="U31" t="n">
-        <v>677.4616523829103</v>
+        <v>1010.024422429056</v>
       </c>
       <c r="V31" t="n">
-        <v>677.4616523829103</v>
+        <v>755.3399342231696</v>
       </c>
       <c r="W31" t="n">
-        <v>677.4616523829103</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="X31" t="n">
-        <v>677.4616523829103</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y31" t="n">
-        <v>677.4616523829103</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>420.3226148324571</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C34" t="n">
-        <v>251.3864319045502</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D34" t="n">
-        <v>251.3864319045502</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E34" t="n">
-        <v>251.3864319045502</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F34" t="n">
-        <v>251.3864319045502</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1394.401413780405</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1394.401413780405</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1394.401413780405</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>1394.401413780405</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>1139.716925574518</v>
       </c>
       <c r="W34" t="n">
-        <v>420.3226148324571</v>
+        <v>1139.716925574518</v>
       </c>
       <c r="X34" t="n">
-        <v>420.3226148324571</v>
+        <v>911.7273746765006</v>
       </c>
       <c r="Y34" t="n">
-        <v>420.3226148324571</v>
+        <v>690.9347955329705</v>
       </c>
     </row>
     <row r="35">
@@ -6964,10 +6964,10 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977053</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7095,37 +7095,37 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241921</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688036</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799328</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471155</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262957</v>
       </c>
       <c r="U37" t="n">
         <v>869.3083006011506</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7204,22 +7204,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>534.542980734167</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653858</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918009</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136706</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>579.0685056491543</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>410.1323227212474</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>260.0156833089117</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>260.0156833089117</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>113.1257358110013</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>113.1257358110013</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028583</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229242</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>760.716970479394</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7572,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,10 +7596,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347409</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141522</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>731.0291971045613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>731.0291971045613</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>731.0291971045613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231155</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9485,16 +9485,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229594</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>44.27839330891797</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>197.9988345086143</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.7412275993274</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>41.84337609543827</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>105.9521741567361</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338454</v>
+        <v>57.11412003153274</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>51.25623527351883</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="26">
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
-        <v>192.3581855871785</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>2.430003851120659</v>
+        <v>23.78198380940927</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>13.86592142355585</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.494644194070318</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338918</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>133.1642704603278</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17.13411807848098</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370032</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915460.0742370032</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>513151.1061651773</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="N2" t="n">
         <v>488786.3246721358</v>
       </c>
-      <c r="N2" t="n">
-        <v>488786.324672136</v>
-      </c>
       <c r="O2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.270016921102069e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,25 +26426,25 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="K4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773395</v>
@@ -26453,13 +26453,13 @@
         <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773401</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>246943.3412446399</v>
       </c>
       <c r="D6" t="n">
-        <v>246943.3412446398</v>
+        <v>246943.3412446399</v>
       </c>
       <c r="E6" t="n">
-        <v>-164793.5212712107</v>
+        <v>-165768.1125309325</v>
       </c>
       <c r="F6" t="n">
-        <v>360366.5152056854</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="G6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="H6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459637</v>
       </c>
       <c r="I6" t="n">
-        <v>360366.5152056854</v>
+        <v>359391.9239459637</v>
       </c>
       <c r="J6" t="n">
-        <v>183943.2960130924</v>
+        <v>182968.7047533708</v>
       </c>
       <c r="K6" t="n">
-        <v>360366.5152056854</v>
+        <v>359391.9239459637</v>
       </c>
       <c r="L6" t="n">
-        <v>360366.5152056855</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="M6" t="n">
-        <v>225565.4999718482</v>
+        <v>224590.9087121266</v>
       </c>
       <c r="N6" t="n">
-        <v>360366.5152056856</v>
+        <v>359391.9239459635</v>
       </c>
       <c r="O6" t="n">
-        <v>360366.5152056854</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="P6" t="n">
-        <v>360366.515205685</v>
+        <v>359391.9239459636</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,16 +26755,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>182.1533050548547</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>58.7421600063937</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.771212764859509</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>50.80735538553398</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>17.67386580734234</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>98.95375469339433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>125.8077805475481</v>
+        <v>63.13204062090043</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>93.51168179012399</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>247.8835274565667</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-3.582082778545252e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110547</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36375,13 +36375,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36849,13 +36849,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>598.8335596281414</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556194</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734255</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1665357.070127643</v>
+        <v>1670296.332976674</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>250.1170845261938</v>
       </c>
       <c r="G2" t="n">
-        <v>355.0420100144013</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>201.330287938294</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>389.2021799343691</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>412.271524106355</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>162.5776147681367</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>171.7616403648715</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>23.54872654977494</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>62.8750056746791</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.6501923679393</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>13.20203877768258</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>256.3190686933502</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>140.8066899520705</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>197.76557724898</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>103.4697082097225</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151882</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>275.1428767696275</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.96451678969</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>29.18937547121085</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="D2" t="n">
-        <v>1304.217875522719</v>
+        <v>1205.211005614513</v>
       </c>
       <c r="E2" t="n">
-        <v>1304.217875522719</v>
+        <v>1205.211005614513</v>
       </c>
       <c r="F2" t="n">
-        <v>893.2319707331117</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.506281012309</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.506281012309</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.506281012309</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E5" t="n">
-        <v>1018.506281012309</v>
+        <v>477.32436550528</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>470.3788647560766</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.506281012309</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4652,37 +4652,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4846,10 +4846,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4895,31 +4895,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5041,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1475.129678083382</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1186.00103929694</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1186.00103929694</v>
+        <v>922.4921098188663</v>
       </c>
       <c r="W13" t="n">
-        <v>896.5838692599799</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="X13" t="n">
-        <v>668.5943183619626</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184324</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="14">
@@ -5257,73 +5257,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>517.9294177607301</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>517.9294177607301</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>517.9294177607301</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>370.016324178337</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>223.1263766804266</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344999</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.5778825909698</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,64 +5740,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>843.1711433963918</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>674.2349604684849</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>674.2349604684849</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684849</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1245.612187370162</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1245.612187370162</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1245.612187370162</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1245.612187370162</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>1245.612187370162</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>1245.612187370162</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>1024.819608226632</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,19 +6551,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1299.153061215498</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1010.024422429056</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>755.3399342231696</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>465.9227641862091</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>465.9227641862091</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>245.130185042679</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822458</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6788,13 +6788,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1394.401413780405</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1394.401413780405</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1394.401413780405</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1394.401413780405</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1139.716925574518</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1139.716925574518</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>911.7273746765006</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>690.9347955329705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6934,40 +6934,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241921</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688036</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799328</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471155</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473451</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262957</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,55 +7171,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7411,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7742,7 +7742,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7830,25 +7830,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9655,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,19 +23469,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>197.9988345086143</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>189.2626376491489</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>41.84337609543827</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>273.3209595589084</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>29.91828370522711</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>57.11412003153274</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>30.42394386102401</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>48.75693659211572</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24891,7 +24891,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>23.78198380940927</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.494644194070318</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338918</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>11.38012156696351</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915460.0742370032</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="14">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651769</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651768</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651773</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721359</v>
@@ -26331,31 +26331,31 @@
         <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="L2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="L2" t="n">
-        <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773396</v>
@@ -26438,13 +26438,13 @@
         <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773395</v>
@@ -26453,13 +26453,13 @@
         <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773401</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26481,34 +26481,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-343024.5379699051</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.3412446399</v>
+        <v>246943.3412446394</v>
       </c>
       <c r="D6" t="n">
-        <v>246943.3412446399</v>
+        <v>246943.3412446393</v>
       </c>
       <c r="E6" t="n">
-        <v>-165768.1125309325</v>
+        <v>-164890.980397183</v>
       </c>
       <c r="F6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797132</v>
       </c>
       <c r="G6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="H6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="I6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797132</v>
       </c>
       <c r="J6" t="n">
-        <v>182968.7047533708</v>
+        <v>183845.8368871201</v>
       </c>
       <c r="K6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="L6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797132</v>
       </c>
       <c r="M6" t="n">
-        <v>224590.9087121266</v>
+        <v>225468.0408458759</v>
       </c>
       <c r="N6" t="n">
-        <v>359391.9239459635</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="O6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="P6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797131</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,7 +26752,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26761,22 +26761,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>156.7589612155176</v>
       </c>
       <c r="G2" t="n">
-        <v>58.7421600063937</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>50.80735538553398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>17.67386580734234</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.512645914439986</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>63.13204062090043</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>210.1687297073902</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36919,7 +36919,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556194</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
